--- a/2 курс/БИС/Занятие 4/Занятие 4.xlsx
+++ b/2 курс/БИС/Занятие 4/Занятие 4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anast\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anast\Documents\GitHub\Financial-University\2 курс\БИС\Занятие 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Проценты</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -414,6 +417,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -452,11 +460,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Денежный" xfId="4" builtinId="4"/>
@@ -779,20 +782,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="132" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="4" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -800,28 +803,28 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="3">
         <v>500000</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="3">
         <v>1</v>
       </c>
@@ -832,46 +835,46 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
     </row>
     <row r="12" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="26"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="29"/>
     </row>
     <row r="13" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="21">
@@ -2042,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J511"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2064,18 +2067,18 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="24" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="17"/>
@@ -2083,87 +2086,87 @@
       <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="3">
         <v>500000</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="4">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="12">
         <v>44089</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="39">
+      <c r="I10" s="25">
         <f>PMT(C5/C7,C6*C7,-C4,,0)</f>
         <v>16133.593596918743</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="I11" s="39">
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="I11" s="25">
         <f>C4+I12</f>
         <v>580809.36948907468</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="I12" s="39">
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="I12" s="25">
         <f>-CUMIPMT(C5/C7,C6*C7,C4,1,C6*C7,0)</f>
         <v>80809.369489074743</v>
       </c>
@@ -2182,15 +2185,15 @@
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
     </row>
     <row r="16" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
@@ -2221,25 +2224,26 @@
         <v>1</v>
       </c>
       <c r="B17" s="19">
-        <v>44104</v>
-      </c>
-      <c r="C17" s="40">
+        <f>IF(OR(ISBLANK(""),$A17=0),"",EDATE($C$8,1))</f>
+        <v>44119</v>
+      </c>
+      <c r="C17" s="26">
         <f>$C$4-D17</f>
         <v>488033.07306974794</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="26">
         <f>-PPMT($C$5/$C$7,$A17,$C$6*$C$7,$C$4,,0)</f>
         <v>11966.926930252077</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="26">
         <f>-IPMT($C$5/$C$7,$A17,$C$6*$C$7,$C$4,,0)</f>
         <v>4166.666666666667</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="26">
         <f>D17</f>
         <v>11966.926930252077</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="26">
         <f>E17</f>
         <v>4166.666666666667</v>
       </c>
@@ -2247,28 +2251,30 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
+        <f>IF(OR($A17&lt;($C$6*$C$7),$A$17:$A17),$A17+1,"")</f>
         <v>2</v>
       </c>
       <c r="B18" s="19">
-        <v>44135</v>
-      </c>
-      <c r="C18" s="40">
+        <f t="shared" ref="B18:B52" si="0">IF(OR(ISBLANK(""),$A18=0),"",EDATE($B17,1))</f>
+        <v>44150</v>
+      </c>
+      <c r="C18" s="26">
         <f>C17-D18</f>
         <v>475966.42174841044</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="26">
         <f>-PPMT($C$5/$C$7,$A18,$C$6*$C$7,$C$4,,0)</f>
         <v>12066.651321337509</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="26">
         <f>-IPMT($C$5/$C$7,$A18,$C$6*$C$7,$C$4,,0)</f>
         <v>4066.9422755812329</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="26">
         <f>F17+D18</f>
         <v>24033.578251589584</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="26">
         <f>G17+E18</f>
         <v>8233.6089422478999</v>
       </c>
@@ -2276,987 +2282,1054 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
+        <f>IF(OR($A18&lt;($C$6*$C$7),$A$17:$A18),$A18+1,"")</f>
         <v>3</v>
       </c>
       <c r="B19" s="19">
-        <v>44165</v>
-      </c>
-      <c r="C19" s="40">
-        <f t="shared" ref="C19:C52" si="0">C18-D19</f>
+        <f t="shared" si="0"/>
+        <v>44180</v>
+      </c>
+      <c r="C19" s="26">
+        <f t="shared" ref="C19:C52" si="1">C18-D19</f>
         <v>463799.21499939513</v>
       </c>
-      <c r="D19" s="40">
-        <f t="shared" ref="D19:D52" si="1">-PPMT($C$5/$C$7,$A19,$C$6*$C$7,$C$4,,0)</f>
+      <c r="D19" s="26">
+        <f t="shared" ref="D19:D52" si="2">-PPMT($C$5/$C$7,$A19,$C$6*$C$7,$C$4,,0)</f>
         <v>12167.206749015322</v>
       </c>
-      <c r="E19" s="40">
-        <f t="shared" ref="E19:E52" si="2">-IPMT($C$5/$C$7,$A19,$C$6*$C$7,$C$4,,0)</f>
+      <c r="E19" s="26">
+        <f t="shared" ref="E19:E52" si="3">-IPMT($C$5/$C$7,$A19,$C$6*$C$7,$C$4,,0)</f>
         <v>3966.3868479034199</v>
       </c>
-      <c r="F19" s="40">
-        <f t="shared" ref="F19:F52" si="3">F18+D19</f>
+      <c r="F19" s="26">
+        <f t="shared" ref="F19:F52" si="4">F18+D19</f>
         <v>36200.785000604905</v>
       </c>
-      <c r="G19" s="40">
-        <f t="shared" ref="G19:G52" si="4">G18+E19</f>
+      <c r="G19" s="26">
+        <f t="shared" ref="G19:G52" si="5">G18+E19</f>
         <v>12199.995790151319</v>
       </c>
       <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
+        <f>IF(OR($A19&lt;($C$6*$C$7),$A$17:$A19),$A19+1,"")</f>
         <v>4</v>
       </c>
       <c r="B20" s="19">
-        <v>44196</v>
-      </c>
-      <c r="C20" s="40">
         <f t="shared" si="0"/>
+        <v>44211</v>
+      </c>
+      <c r="C20" s="26">
+        <f t="shared" si="1"/>
         <v>451530.61486080469</v>
       </c>
-      <c r="D20" s="40">
-        <f t="shared" si="1"/>
+      <c r="D20" s="26">
+        <f t="shared" si="2"/>
         <v>12268.600138590449</v>
       </c>
-      <c r="E20" s="40">
-        <f t="shared" si="2"/>
+      <c r="E20" s="26">
+        <f t="shared" si="3"/>
         <v>3864.9934583282916</v>
       </c>
-      <c r="F20" s="40">
-        <f t="shared" si="3"/>
+      <c r="F20" s="26">
+        <f t="shared" si="4"/>
         <v>48469.38513919535</v>
       </c>
-      <c r="G20" s="40">
-        <f t="shared" si="4"/>
+      <c r="G20" s="26">
+        <f t="shared" si="5"/>
         <v>16064.989248479611</v>
       </c>
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
+        <f>IF(OR($A20&lt;($C$6*$C$7),$A$17:$A20),$A20+1,"")</f>
         <v>5</v>
       </c>
       <c r="B21" s="19">
-        <v>44227</v>
-      </c>
-      <c r="C21" s="40">
         <f t="shared" si="0"/>
+        <v>44242</v>
+      </c>
+      <c r="C21" s="26">
+        <f t="shared" si="1"/>
         <v>439159.77638772601</v>
       </c>
-      <c r="D21" s="40">
-        <f t="shared" si="1"/>
+      <c r="D21" s="26">
+        <f t="shared" si="2"/>
         <v>12370.838473078706</v>
       </c>
-      <c r="E21" s="40">
-        <f t="shared" si="2"/>
+      <c r="E21" s="26">
+        <f t="shared" si="3"/>
         <v>3762.7551238400388</v>
       </c>
-      <c r="F21" s="40">
-        <f t="shared" si="3"/>
+      <c r="F21" s="26">
+        <f t="shared" si="4"/>
         <v>60840.223612274058</v>
       </c>
-      <c r="G21" s="40">
-        <f t="shared" si="4"/>
+      <c r="G21" s="26">
+        <f t="shared" si="5"/>
         <v>19827.744372319648</v>
       </c>
       <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
+        <f>IF(OR($A21&lt;($C$6*$C$7),$A$17:$A21),$A21+1,"")</f>
         <v>6</v>
       </c>
       <c r="B22" s="19">
-        <v>44255</v>
-      </c>
-      <c r="C22" s="40">
         <f t="shared" si="0"/>
+        <v>44270</v>
+      </c>
+      <c r="C22" s="26">
+        <f t="shared" si="1"/>
         <v>426685.84759403835</v>
       </c>
-      <c r="D22" s="40">
-        <f t="shared" si="1"/>
+      <c r="D22" s="26">
+        <f t="shared" si="2"/>
         <v>12473.928793687694</v>
       </c>
-      <c r="E22" s="40">
-        <f t="shared" si="2"/>
+      <c r="E22" s="26">
+        <f t="shared" si="3"/>
         <v>3659.66480323105</v>
       </c>
-      <c r="F22" s="40">
-        <f t="shared" si="3"/>
+      <c r="F22" s="26">
+        <f t="shared" si="4"/>
         <v>73314.152405961751</v>
       </c>
-      <c r="G22" s="40">
-        <f t="shared" si="4"/>
+      <c r="G22" s="26">
+        <f t="shared" si="5"/>
         <v>23487.4091755507</v>
       </c>
       <c r="J22" s="19"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
+        <f>IF(OR($A22&lt;($C$6*$C$7),$A$17:$A22),$A22+1,"")</f>
         <v>7</v>
       </c>
       <c r="B23" s="19">
-        <v>44286</v>
-      </c>
-      <c r="C23" s="40">
         <f t="shared" si="0"/>
+        <v>44301</v>
+      </c>
+      <c r="C23" s="26">
+        <f t="shared" si="1"/>
         <v>414107.96939373657</v>
       </c>
-      <c r="D23" s="40">
-        <f t="shared" si="1"/>
+      <c r="D23" s="26">
+        <f t="shared" si="2"/>
         <v>12577.878200301759</v>
       </c>
-      <c r="E23" s="40">
-        <f t="shared" si="2"/>
+      <c r="E23" s="26">
+        <f t="shared" si="3"/>
         <v>3555.7153966169849</v>
       </c>
-      <c r="F23" s="40">
-        <f t="shared" si="3"/>
+      <c r="F23" s="26">
+        <f t="shared" si="4"/>
         <v>85892.030606263506</v>
       </c>
-      <c r="G23" s="40">
-        <f t="shared" si="4"/>
+      <c r="G23" s="26">
+        <f t="shared" si="5"/>
         <v>27043.124572167686</v>
       </c>
       <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
+        <f>IF(OR($A23&lt;($C$6*$C$7),$A$17:$A23),$A23+1,"")</f>
         <v>8</v>
       </c>
       <c r="B24" s="19">
-        <v>44316</v>
-      </c>
-      <c r="C24" s="40">
         <f t="shared" si="0"/>
+        <v>44331</v>
+      </c>
+      <c r="C24" s="26">
+        <f t="shared" si="1"/>
         <v>401425.27554176562</v>
       </c>
-      <c r="D24" s="40">
-        <f t="shared" si="1"/>
+      <c r="D24" s="26">
+        <f t="shared" si="2"/>
         <v>12682.69385197094</v>
       </c>
-      <c r="E24" s="40">
-        <f t="shared" si="2"/>
+      <c r="E24" s="26">
+        <f t="shared" si="3"/>
         <v>3450.8997449478038</v>
       </c>
-      <c r="F24" s="40">
-        <f t="shared" si="3"/>
+      <c r="F24" s="26">
+        <f t="shared" si="4"/>
         <v>98574.724458234443</v>
       </c>
-      <c r="G24" s="40">
-        <f t="shared" si="4"/>
+      <c r="G24" s="26">
+        <f t="shared" si="5"/>
         <v>30494.024317115491</v>
       </c>
       <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
+        <f>IF(OR($A24&lt;($C$6*$C$7),$A$17:$A24),$A24+1,"")</f>
         <v>9</v>
       </c>
       <c r="B25" s="19">
-        <v>44347</v>
-      </c>
-      <c r="C25" s="40">
         <f t="shared" si="0"/>
+        <v>44362</v>
+      </c>
+      <c r="C25" s="26">
+        <f t="shared" si="1"/>
         <v>388636.89257436158</v>
       </c>
-      <c r="D25" s="40">
-        <f t="shared" si="1"/>
+      <c r="D25" s="26">
+        <f t="shared" si="2"/>
         <v>12788.38296740403</v>
       </c>
-      <c r="E25" s="40">
-        <f t="shared" si="2"/>
+      <c r="E25" s="26">
+        <f t="shared" si="3"/>
         <v>3345.2106295147123</v>
       </c>
-      <c r="F25" s="40">
-        <f t="shared" si="3"/>
+      <c r="F25" s="26">
+        <f t="shared" si="4"/>
         <v>111363.10742563847</v>
       </c>
-      <c r="G25" s="40">
-        <f t="shared" si="4"/>
+      <c r="G25" s="26">
+        <f t="shared" si="5"/>
         <v>33839.234946630204</v>
       </c>
       <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
+        <f>IF(OR($A25&lt;($C$6*$C$7),$A$17:$A25),$A25+1,"")</f>
         <v>10</v>
       </c>
       <c r="B26" s="19">
-        <v>44377</v>
-      </c>
-      <c r="C26" s="40">
         <f t="shared" si="0"/>
+        <v>44392</v>
+      </c>
+      <c r="C26" s="26">
+        <f t="shared" si="1"/>
         <v>375741.93974889588</v>
       </c>
-      <c r="D26" s="40">
-        <f t="shared" si="1"/>
+      <c r="D26" s="26">
+        <f t="shared" si="2"/>
         <v>12894.952825465731</v>
       </c>
-      <c r="E26" s="40">
-        <f t="shared" si="2"/>
+      <c r="E26" s="26">
+        <f t="shared" si="3"/>
         <v>3238.6407714530123</v>
       </c>
-      <c r="F26" s="40">
-        <f t="shared" si="3"/>
+      <c r="F26" s="26">
+        <f t="shared" si="4"/>
         <v>124258.06025110421</v>
       </c>
-      <c r="G26" s="40">
-        <f t="shared" si="4"/>
+      <c r="G26" s="26">
+        <f t="shared" si="5"/>
         <v>37077.875718083218</v>
       </c>
       <c r="J26" s="19"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
+        <f>IF(OR($A26&lt;($C$6*$C$7),$A$17:$A26),$A26+1,"")</f>
         <v>11</v>
       </c>
       <c r="B27" s="19">
-        <v>44408</v>
-      </c>
-      <c r="C27" s="40">
         <f t="shared" si="0"/>
+        <v>44423</v>
+      </c>
+      <c r="C27" s="26">
+        <f t="shared" si="1"/>
         <v>362739.52898321796</v>
       </c>
-      <c r="D27" s="40">
-        <f t="shared" si="1"/>
+      <c r="D27" s="26">
+        <f t="shared" si="2"/>
         <v>13002.410765677945</v>
       </c>
-      <c r="E27" s="40">
-        <f t="shared" si="2"/>
+      <c r="E27" s="26">
+        <f t="shared" si="3"/>
         <v>3131.1828312407979</v>
       </c>
-      <c r="F27" s="40">
-        <f t="shared" si="3"/>
+      <c r="F27" s="26">
+        <f t="shared" si="4"/>
         <v>137260.47101678216</v>
       </c>
-      <c r="G27" s="40">
-        <f t="shared" si="4"/>
+      <c r="G27" s="26">
+        <f t="shared" si="5"/>
         <v>40209.058549324014</v>
       </c>
       <c r="J27" s="19"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
+        <f>IF(OR($A27&lt;($C$6*$C$7),$A$17:$A27),$A27+1,"")</f>
         <v>12</v>
       </c>
       <c r="B28" s="19">
-        <v>44439</v>
-      </c>
-      <c r="C28" s="40">
         <f t="shared" si="0"/>
+        <v>44454</v>
+      </c>
+      <c r="C28" s="26">
+        <f t="shared" si="1"/>
         <v>349628.76479449269</v>
       </c>
-      <c r="D28" s="40">
-        <f t="shared" si="1"/>
+      <c r="D28" s="26">
+        <f t="shared" si="2"/>
         <v>13110.764188725261</v>
       </c>
-      <c r="E28" s="40">
-        <f t="shared" si="2"/>
+      <c r="E28" s="26">
+        <f t="shared" si="3"/>
         <v>3022.8294081934819</v>
       </c>
-      <c r="F28" s="40">
-        <f t="shared" si="3"/>
+      <c r="F28" s="26">
+        <f t="shared" si="4"/>
         <v>150371.23520550743</v>
       </c>
-      <c r="G28" s="40">
-        <f t="shared" si="4"/>
+      <c r="G28" s="26">
+        <f t="shared" si="5"/>
         <v>43231.887957517494</v>
       </c>
       <c r="J28" s="19"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
+        <f>IF(OR($A28&lt;($C$6*$C$7),$A$17:$A28),$A28+1,"")</f>
         <v>13</v>
       </c>
       <c r="B29" s="19">
-        <v>44469</v>
-      </c>
-      <c r="C29" s="40">
         <f t="shared" si="0"/>
+        <v>44484</v>
+      </c>
+      <c r="C29" s="26">
+        <f t="shared" si="1"/>
         <v>336408.74423752807</v>
       </c>
-      <c r="D29" s="40">
-        <f t="shared" si="1"/>
+      <c r="D29" s="26">
+        <f t="shared" si="2"/>
         <v>13220.020556964637</v>
       </c>
-      <c r="E29" s="40">
-        <f t="shared" si="2"/>
+      <c r="E29" s="26">
+        <f t="shared" si="3"/>
         <v>2913.5730399541048</v>
       </c>
-      <c r="F29" s="40">
-        <f t="shared" si="3"/>
+      <c r="F29" s="26">
+        <f t="shared" si="4"/>
         <v>163591.25576247208</v>
       </c>
-      <c r="G29" s="40">
-        <f t="shared" si="4"/>
+      <c r="G29" s="26">
+        <f t="shared" si="5"/>
         <v>46145.4609974716</v>
       </c>
       <c r="J29" s="19"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
+        <f>IF(OR($A29&lt;($C$6*$C$7),$A$17:$A29),$A29+1,"")</f>
         <v>14</v>
       </c>
       <c r="B30" s="19">
-        <v>44500</v>
-      </c>
-      <c r="C30" s="40">
         <f t="shared" si="0"/>
+        <v>44515</v>
+      </c>
+      <c r="C30" s="26">
+        <f t="shared" si="1"/>
         <v>323078.5568425887</v>
       </c>
-      <c r="D30" s="40">
-        <f t="shared" si="1"/>
+      <c r="D30" s="26">
+        <f t="shared" si="2"/>
         <v>13330.187394939343</v>
       </c>
-      <c r="E30" s="40">
-        <f t="shared" si="2"/>
+      <c r="E30" s="26">
+        <f t="shared" si="3"/>
         <v>2803.4062019793996</v>
       </c>
-      <c r="F30" s="40">
-        <f t="shared" si="3"/>
+      <c r="F30" s="26">
+        <f t="shared" si="4"/>
         <v>176921.44315741141</v>
       </c>
-      <c r="G30" s="40">
-        <f t="shared" si="4"/>
+      <c r="G30" s="26">
+        <f t="shared" si="5"/>
         <v>48948.867199451</v>
       </c>
       <c r="J30" s="19"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
+        <f>IF(OR($A30&lt;($C$6*$C$7),$A$17:$A30),$A30+1,"")</f>
         <v>15</v>
       </c>
       <c r="B31" s="19">
-        <v>44530</v>
-      </c>
-      <c r="C31" s="40">
         <f t="shared" si="0"/>
+        <v>44545</v>
+      </c>
+      <c r="C31" s="26">
+        <f t="shared" si="1"/>
         <v>309637.2845526915</v>
       </c>
-      <c r="D31" s="40">
-        <f t="shared" si="1"/>
+      <c r="D31" s="26">
+        <f t="shared" si="2"/>
         <v>13441.272289897172</v>
       </c>
-      <c r="E31" s="40">
-        <f t="shared" si="2"/>
+      <c r="E31" s="26">
+        <f t="shared" si="3"/>
         <v>2692.3213070215716</v>
       </c>
-      <c r="F31" s="40">
-        <f t="shared" si="3"/>
+      <c r="F31" s="26">
+        <f t="shared" si="4"/>
         <v>190362.71544730858</v>
       </c>
-      <c r="G31" s="40">
-        <f t="shared" si="4"/>
+      <c r="G31" s="26">
+        <f t="shared" si="5"/>
         <v>51641.188506472572</v>
       </c>
       <c r="J31" s="19"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
+        <f>IF(OR($A31&lt;($C$6*$C$7),$A$17:$A31),$A31+1,"")</f>
         <v>16</v>
       </c>
       <c r="B32" s="19">
-        <v>44561</v>
-      </c>
-      <c r="C32" s="40">
         <f t="shared" si="0"/>
+        <v>44576</v>
+      </c>
+      <c r="C32" s="26">
+        <f t="shared" si="1"/>
         <v>296084.00166037853</v>
       </c>
-      <c r="D32" s="40">
-        <f t="shared" si="1"/>
+      <c r="D32" s="26">
+        <f t="shared" si="2"/>
         <v>13553.28289231298</v>
       </c>
-      <c r="E32" s="40">
-        <f t="shared" si="2"/>
+      <c r="E32" s="26">
+        <f t="shared" si="3"/>
         <v>2580.3107046057617</v>
       </c>
-      <c r="F32" s="40">
-        <f t="shared" si="3"/>
+      <c r="F32" s="26">
+        <f t="shared" si="4"/>
         <v>203915.99833962155</v>
       </c>
-      <c r="G32" s="40">
-        <f t="shared" si="4"/>
+      <c r="G32" s="26">
+        <f t="shared" si="5"/>
         <v>54221.499211078335</v>
       </c>
       <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
+        <f>IF(OR($A32&lt;($C$6*$C$7),$A$17:$A32),$A32+1,"")</f>
         <v>17</v>
       </c>
       <c r="B33" s="19">
-        <v>44592</v>
-      </c>
-      <c r="C33" s="40">
         <f t="shared" si="0"/>
+        <v>44607</v>
+      </c>
+      <c r="C33" s="26">
+        <f t="shared" si="1"/>
         <v>282417.77474396292</v>
       </c>
-      <c r="D33" s="40">
-        <f t="shared" si="1"/>
+      <c r="D33" s="26">
+        <f t="shared" si="2"/>
         <v>13666.22691641559</v>
       </c>
-      <c r="E33" s="40">
-        <f t="shared" si="2"/>
+      <c r="E33" s="26">
+        <f t="shared" si="3"/>
         <v>2467.3666805031539</v>
       </c>
-      <c r="F33" s="40">
-        <f t="shared" si="3"/>
+      <c r="F33" s="26">
+        <f t="shared" si="4"/>
         <v>217582.22525603714</v>
       </c>
-      <c r="G33" s="40">
-        <f t="shared" si="4"/>
+      <c r="G33" s="26">
+        <f t="shared" si="5"/>
         <v>56688.865891581489</v>
       </c>
       <c r="J33" s="19"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
+        <f>IF(OR($A33&lt;($C$6*$C$7),$A$17:$A33),$A33+1,"")</f>
         <v>18</v>
       </c>
       <c r="B34" s="19">
-        <v>44620</v>
-      </c>
-      <c r="C34" s="40">
         <f t="shared" si="0"/>
+        <v>44635</v>
+      </c>
+      <c r="C34" s="26">
+        <f t="shared" si="1"/>
         <v>268637.66260324384</v>
       </c>
-      <c r="D34" s="40">
-        <f t="shared" si="1"/>
+      <c r="D34" s="26">
+        <f t="shared" si="2"/>
         <v>13780.112140719051</v>
       </c>
-      <c r="E34" s="40">
-        <f t="shared" si="2"/>
+      <c r="E34" s="26">
+        <f t="shared" si="3"/>
         <v>2353.48145619969</v>
       </c>
-      <c r="F34" s="40">
-        <f t="shared" si="3"/>
+      <c r="F34" s="26">
+        <f t="shared" si="4"/>
         <v>231362.33739675619</v>
       </c>
-      <c r="G34" s="40">
-        <f t="shared" si="4"/>
+      <c r="G34" s="26">
+        <f t="shared" si="5"/>
         <v>59042.347347781179</v>
       </c>
       <c r="J34" s="19"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
+        <f>IF(OR($A34&lt;($C$6*$C$7),$A$17:$A34),$A34+1,"")</f>
         <v>19</v>
       </c>
       <c r="B35" s="19">
-        <v>44651</v>
-      </c>
-      <c r="C35" s="40">
         <f t="shared" si="0"/>
+        <v>44666</v>
+      </c>
+      <c r="C35" s="26">
+        <f t="shared" si="1"/>
         <v>254742.71619468546</v>
       </c>
-      <c r="D35" s="40">
-        <f t="shared" si="1"/>
+      <c r="D35" s="26">
+        <f t="shared" si="2"/>
         <v>13894.946408558377</v>
       </c>
-      <c r="E35" s="40">
-        <f t="shared" si="2"/>
+      <c r="E35" s="26">
+        <f t="shared" si="3"/>
         <v>2238.6471883603649</v>
       </c>
-      <c r="F35" s="40">
-        <f t="shared" si="3"/>
+      <c r="F35" s="26">
+        <f t="shared" si="4"/>
         <v>245257.28380531457</v>
       </c>
-      <c r="G35" s="40">
-        <f t="shared" si="4"/>
+      <c r="G35" s="26">
+        <f t="shared" si="5"/>
         <v>61280.994536141545</v>
       </c>
       <c r="J35" s="19"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
+        <f>IF(OR($A35&lt;($C$6*$C$7),$A$17:$A35),$A35+1,"")</f>
         <v>20</v>
       </c>
       <c r="B36" s="19">
-        <v>44681</v>
-      </c>
-      <c r="C36" s="40">
         <f t="shared" si="0"/>
+        <v>44696</v>
+      </c>
+      <c r="C36" s="26">
+        <f t="shared" si="1"/>
         <v>240731.97856605577</v>
       </c>
-      <c r="D36" s="40">
-        <f t="shared" si="1"/>
+      <c r="D36" s="26">
+        <f t="shared" si="2"/>
         <v>14010.737628629699</v>
       </c>
-      <c r="E36" s="40">
-        <f t="shared" si="2"/>
+      <c r="E36" s="26">
+        <f t="shared" si="3"/>
         <v>2122.855968289045</v>
       </c>
-      <c r="F36" s="40">
-        <f t="shared" si="3"/>
+      <c r="F36" s="26">
+        <f t="shared" si="4"/>
         <v>259268.02143394426</v>
       </c>
-      <c r="G36" s="40">
-        <f t="shared" si="4"/>
+      <c r="G36" s="26">
+        <f t="shared" si="5"/>
         <v>63403.850504430593</v>
       </c>
       <c r="J36" s="19"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
+        <f>IF(OR($A36&lt;($C$6*$C$7),$A$17:$A36),$A36+1,"")</f>
         <v>21</v>
       </c>
       <c r="B37" s="19">
-        <v>44712</v>
-      </c>
-      <c r="C37" s="40">
         <f t="shared" si="0"/>
+        <v>44727</v>
+      </c>
+      <c r="C37" s="26">
+        <f t="shared" si="1"/>
         <v>226604.48479052083</v>
       </c>
-      <c r="D37" s="40">
-        <f t="shared" si="1"/>
+      <c r="D37" s="26">
+        <f t="shared" si="2"/>
         <v>14127.493775534946</v>
       </c>
-      <c r="E37" s="40">
-        <f t="shared" si="2"/>
+      <c r="E37" s="26">
+        <f t="shared" si="3"/>
         <v>2006.0998213837975</v>
       </c>
-      <c r="F37" s="40">
-        <f t="shared" si="3"/>
+      <c r="F37" s="26">
+        <f t="shared" si="4"/>
         <v>273395.5152094792</v>
       </c>
-      <c r="G37" s="40">
-        <f t="shared" si="4"/>
+      <c r="G37" s="26">
+        <f t="shared" si="5"/>
         <v>65409.950325814389</v>
       </c>
       <c r="J37" s="19"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
+        <f>IF(OR($A37&lt;($C$6*$C$7),$A$17:$A37),$A37+1,"")</f>
         <v>22</v>
       </c>
       <c r="B38" s="19">
-        <v>44742</v>
-      </c>
-      <c r="C38" s="40">
         <f t="shared" si="0"/>
+        <v>44757</v>
+      </c>
+      <c r="C38" s="26">
+        <f t="shared" si="1"/>
         <v>212359.26190018977</v>
       </c>
-      <c r="D38" s="40">
-        <f t="shared" si="1"/>
+      <c r="D38" s="26">
+        <f t="shared" si="2"/>
         <v>14245.22289033107</v>
       </c>
-      <c r="E38" s="40">
-        <f t="shared" si="2"/>
+      <c r="E38" s="26">
+        <f t="shared" si="3"/>
         <v>1888.3707065876731</v>
       </c>
-      <c r="F38" s="40">
-        <f t="shared" si="3"/>
+      <c r="F38" s="26">
+        <f t="shared" si="4"/>
         <v>287640.73809981026</v>
       </c>
-      <c r="G38" s="40">
-        <f t="shared" si="4"/>
+      <c r="G38" s="26">
+        <f t="shared" si="5"/>
         <v>67298.321032402062</v>
       </c>
       <c r="J38" s="19"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
+        <f>IF(OR($A38&lt;($C$6*$C$7),$A$17:$A38),$A38+1,"")</f>
         <v>23</v>
       </c>
       <c r="B39" s="19">
-        <v>44773</v>
-      </c>
-      <c r="C39" s="40">
         <f t="shared" si="0"/>
+        <v>44788</v>
+      </c>
+      <c r="C39" s="26">
+        <f t="shared" si="1"/>
         <v>197995.32881910595</v>
       </c>
-      <c r="D39" s="40">
-        <f t="shared" si="1"/>
+      <c r="D39" s="26">
+        <f t="shared" si="2"/>
         <v>14363.933081083827</v>
       </c>
-      <c r="E39" s="40">
-        <f t="shared" si="2"/>
+      <c r="E39" s="26">
+        <f t="shared" si="3"/>
         <v>1769.6605158349139</v>
       </c>
-      <c r="F39" s="40">
-        <f t="shared" si="3"/>
+      <c r="F39" s="26">
+        <f t="shared" si="4"/>
         <v>302004.67118089407</v>
       </c>
-      <c r="G39" s="40">
-        <f t="shared" si="4"/>
+      <c r="G39" s="26">
+        <f t="shared" si="5"/>
         <v>69067.981548236974</v>
       </c>
       <c r="J39" s="19"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
+        <f>IF(OR($A39&lt;($C$6*$C$7),$A$17:$A39),$A39+1,"")</f>
         <v>24</v>
       </c>
       <c r="B40" s="19">
-        <v>44804</v>
-      </c>
-      <c r="C40" s="40">
         <f t="shared" si="0"/>
+        <v>44819</v>
+      </c>
+      <c r="C40" s="26">
+        <f t="shared" si="1"/>
         <v>183511.69629567975</v>
       </c>
-      <c r="D40" s="40">
-        <f t="shared" si="1"/>
+      <c r="D40" s="26">
+        <f t="shared" si="2"/>
         <v>14483.632523426195</v>
       </c>
-      <c r="E40" s="40">
-        <f t="shared" si="2"/>
+      <c r="E40" s="26">
+        <f t="shared" si="3"/>
         <v>1649.9610734925488</v>
       </c>
-      <c r="F40" s="40">
-        <f t="shared" si="3"/>
+      <c r="F40" s="26">
+        <f t="shared" si="4"/>
         <v>316488.30370432028</v>
       </c>
-      <c r="G40" s="40">
-        <f t="shared" si="4"/>
+      <c r="G40" s="26">
+        <f t="shared" si="5"/>
         <v>70717.942621729526</v>
       </c>
       <c r="J40" s="19"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
+        <f>IF(OR($A40&lt;($C$6*$C$7),$A$17:$A40),$A40+1,"")</f>
         <v>25</v>
       </c>
       <c r="B41" s="19">
-        <v>44834</v>
-      </c>
-      <c r="C41" s="40">
         <f t="shared" si="0"/>
+        <v>44849</v>
+      </c>
+      <c r="C41" s="26">
+        <f t="shared" si="1"/>
         <v>168907.36683455834</v>
       </c>
-      <c r="D41" s="40">
-        <f t="shared" si="1"/>
+      <c r="D41" s="26">
+        <f t="shared" si="2"/>
         <v>14604.329461121411</v>
       </c>
-      <c r="E41" s="40">
-        <f t="shared" si="2"/>
+      <c r="E41" s="26">
+        <f t="shared" si="3"/>
         <v>1529.2641357973305</v>
       </c>
-      <c r="F41" s="40">
-        <f t="shared" si="3"/>
+      <c r="F41" s="26">
+        <f t="shared" si="4"/>
         <v>331092.63316544169</v>
       </c>
-      <c r="G41" s="40">
-        <f t="shared" si="4"/>
+      <c r="G41" s="26">
+        <f t="shared" si="5"/>
         <v>72247.206757526859</v>
       </c>
       <c r="J41" s="19"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
+        <f>IF(OR($A41&lt;($C$6*$C$7),$A$17:$A41),$A41+1,"")</f>
         <v>26</v>
       </c>
       <c r="B42" s="19">
-        <v>44865</v>
-      </c>
-      <c r="C42" s="40">
         <f t="shared" si="0"/>
+        <v>44880</v>
+      </c>
+      <c r="C42" s="26">
+        <f t="shared" si="1"/>
         <v>154181.33462792757</v>
       </c>
-      <c r="D42" s="40">
-        <f t="shared" si="1"/>
+      <c r="D42" s="26">
+        <f t="shared" si="2"/>
         <v>14726.032206630756</v>
       </c>
-      <c r="E42" s="40">
-        <f t="shared" si="2"/>
+      <c r="E42" s="26">
+        <f t="shared" si="3"/>
         <v>1407.5613902879854</v>
       </c>
-      <c r="F42" s="40">
-        <f t="shared" si="3"/>
+      <c r="F42" s="26">
+        <f t="shared" si="4"/>
         <v>345818.66537207243</v>
       </c>
-      <c r="G42" s="40">
-        <f t="shared" si="4"/>
+      <c r="G42" s="26">
+        <f t="shared" si="5"/>
         <v>73654.768147814844</v>
       </c>
       <c r="J42" s="19"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
+        <f>IF(OR($A42&lt;($C$6*$C$7),$A$17:$A42),$A42+1,"")</f>
         <v>27</v>
       </c>
       <c r="B43" s="19">
-        <v>44895</v>
-      </c>
-      <c r="C43" s="40">
         <f t="shared" si="0"/>
+        <v>44910</v>
+      </c>
+      <c r="C43" s="26">
+        <f t="shared" si="1"/>
         <v>139332.58548624156</v>
       </c>
-      <c r="D43" s="40">
-        <f t="shared" si="1"/>
+      <c r="D43" s="26">
+        <f t="shared" si="2"/>
         <v>14848.749141686014</v>
       </c>
-      <c r="E43" s="40">
-        <f t="shared" si="2"/>
+      <c r="E43" s="26">
+        <f t="shared" si="3"/>
         <v>1284.8444552327292</v>
       </c>
-      <c r="F43" s="40">
-        <f t="shared" si="3"/>
+      <c r="F43" s="26">
+        <f t="shared" si="4"/>
         <v>360667.41451375844</v>
       </c>
-      <c r="G43" s="40">
-        <f t="shared" si="4"/>
+      <c r="G43" s="26">
+        <f t="shared" si="5"/>
         <v>74939.612603047572</v>
       </c>
       <c r="J43" s="19"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
+        <f>IF(OR($A43&lt;($C$6*$C$7),$A$17:$A43),$A43+1,"")</f>
         <v>28</v>
       </c>
       <c r="B44" s="19">
-        <v>44926</v>
-      </c>
-      <c r="C44" s="40">
         <f t="shared" si="0"/>
+        <v>44941</v>
+      </c>
+      <c r="C44" s="26">
+        <f t="shared" si="1"/>
         <v>124360.09676837483</v>
       </c>
-      <c r="D44" s="40">
-        <f t="shared" si="1"/>
+      <c r="D44" s="26">
+        <f t="shared" si="2"/>
         <v>14972.488717866732</v>
       </c>
-      <c r="E44" s="40">
-        <f t="shared" si="2"/>
+      <c r="E44" s="26">
+        <f t="shared" si="3"/>
         <v>1161.1048790520124</v>
       </c>
-      <c r="F44" s="40">
-        <f t="shared" si="3"/>
+      <c r="F44" s="26">
+        <f t="shared" si="4"/>
         <v>375639.90323162515</v>
       </c>
-      <c r="G44" s="40">
-        <f t="shared" si="4"/>
+      <c r="G44" s="26">
+        <f t="shared" si="5"/>
         <v>76100.717482099586</v>
       </c>
       <c r="J44" s="19"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
+        <f>IF(OR($A44&lt;($C$6*$C$7),$A$17:$A44),$A44+1,"")</f>
         <v>29</v>
       </c>
       <c r="B45" s="19">
-        <v>44957</v>
-      </c>
-      <c r="C45" s="40">
         <f t="shared" si="0"/>
+        <v>44972</v>
+      </c>
+      <c r="C45" s="26">
+        <f t="shared" si="1"/>
         <v>109262.83731119255</v>
       </c>
-      <c r="D45" s="40">
-        <f t="shared" si="1"/>
+      <c r="D45" s="26">
+        <f t="shared" si="2"/>
         <v>15097.259457182286</v>
       </c>
-      <c r="E45" s="40">
-        <f t="shared" si="2"/>
+      <c r="E45" s="26">
+        <f t="shared" si="3"/>
         <v>1036.3341397364561</v>
       </c>
-      <c r="F45" s="40">
-        <f t="shared" si="3"/>
+      <c r="F45" s="26">
+        <f t="shared" si="4"/>
         <v>390737.16268880747</v>
       </c>
-      <c r="G45" s="40">
-        <f t="shared" si="4"/>
+      <c r="G45" s="26">
+        <f t="shared" si="5"/>
         <v>77137.051621836043</v>
       </c>
       <c r="J45" s="19"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
+        <f>IF(OR($A45&lt;($C$6*$C$7),$A$17:$A45),$A45+1,"")</f>
         <v>30</v>
       </c>
       <c r="B46" s="19">
-        <v>44985</v>
-      </c>
-      <c r="C46" s="40">
         <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+      <c r="C46" s="26">
+        <f t="shared" si="1"/>
         <v>94039.767358533747</v>
       </c>
-      <c r="D46" s="40">
-        <f t="shared" si="1"/>
+      <c r="D46" s="26">
+        <f t="shared" si="2"/>
         <v>15223.069952658805</v>
       </c>
-      <c r="E46" s="40">
-        <f t="shared" si="2"/>
+      <c r="E46" s="26">
+        <f t="shared" si="3"/>
         <v>910.5236442599371</v>
       </c>
-      <c r="F46" s="40">
-        <f t="shared" si="3"/>
+      <c r="F46" s="26">
+        <f t="shared" si="4"/>
         <v>405960.23264146625</v>
       </c>
-      <c r="G46" s="40">
-        <f t="shared" si="4"/>
+      <c r="G46" s="26">
+        <f t="shared" si="5"/>
         <v>78047.575266095984</v>
       </c>
       <c r="J46" s="19"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
+        <f>IF(OR($A46&lt;($C$6*$C$7),$A$17:$A46),$A46+1,"")</f>
         <v>31</v>
       </c>
       <c r="B47" s="19">
-        <v>45016</v>
-      </c>
-      <c r="C47" s="40">
         <f t="shared" si="0"/>
+        <v>45031</v>
+      </c>
+      <c r="C47" s="26">
+        <f t="shared" si="1"/>
         <v>78689.838489602786</v>
       </c>
-      <c r="D47" s="40">
-        <f t="shared" si="1"/>
+      <c r="D47" s="26">
+        <f t="shared" si="2"/>
         <v>15349.928868930963</v>
       </c>
-      <c r="E47" s="40">
-        <f t="shared" si="2"/>
+      <c r="E47" s="26">
+        <f t="shared" si="3"/>
         <v>783.66472798778045</v>
       </c>
-      <c r="F47" s="40">
-        <f t="shared" si="3"/>
+      <c r="F47" s="26">
+        <f t="shared" si="4"/>
         <v>421310.16151039721</v>
       </c>
-      <c r="G47" s="40">
-        <f t="shared" si="4"/>
+      <c r="G47" s="26">
+        <f t="shared" si="5"/>
         <v>78831.239994083764</v>
       </c>
       <c r="J47" s="19"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
+        <f>IF(OR($A47&lt;($C$6*$C$7),$A$17:$A47),$A47+1,"")</f>
         <v>32</v>
       </c>
       <c r="B48" s="19">
-        <v>45046</v>
-      </c>
-      <c r="C48" s="40">
         <f t="shared" si="0"/>
+        <v>45061</v>
+      </c>
+      <c r="C48" s="26">
+        <f t="shared" si="1"/>
         <v>63211.993546764068</v>
       </c>
-      <c r="D48" s="40">
-        <f t="shared" si="1"/>
+      <c r="D48" s="26">
+        <f t="shared" si="2"/>
         <v>15477.844942838719</v>
       </c>
-      <c r="E48" s="40">
-        <f t="shared" si="2"/>
+      <c r="E48" s="26">
+        <f t="shared" si="3"/>
         <v>655.74865408002256</v>
       </c>
-      <c r="F48" s="40">
-        <f t="shared" si="3"/>
+      <c r="F48" s="26">
+        <f t="shared" si="4"/>
         <v>436788.00645323592</v>
       </c>
-      <c r="G48" s="40">
-        <f t="shared" si="4"/>
+      <c r="G48" s="26">
+        <f t="shared" si="5"/>
         <v>79486.98864816378</v>
       </c>
       <c r="J48" s="19"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
+        <f>IF(OR($A48&lt;($C$6*$C$7),$A$17:$A48),$A48+1,"")</f>
         <v>33</v>
       </c>
       <c r="B49" s="19">
-        <v>45077</v>
-      </c>
-      <c r="C49" s="40">
         <f t="shared" si="0"/>
+        <v>45092</v>
+      </c>
+      <c r="C49" s="26">
+        <f t="shared" si="1"/>
         <v>47605.16656273503</v>
       </c>
-      <c r="D49" s="40">
-        <f t="shared" si="1"/>
+      <c r="D49" s="26">
+        <f t="shared" si="2"/>
         <v>15606.826984029041</v>
       </c>
-      <c r="E49" s="40">
-        <f t="shared" si="2"/>
+      <c r="E49" s="26">
+        <f t="shared" si="3"/>
         <v>526.76661288969979</v>
       </c>
-      <c r="F49" s="40">
-        <f t="shared" si="3"/>
+      <c r="F49" s="26">
+        <f t="shared" si="4"/>
         <v>452394.83343726496</v>
       </c>
-      <c r="G49" s="40">
-        <f t="shared" si="4"/>
+      <c r="G49" s="26">
+        <f t="shared" si="5"/>
         <v>80013.755261053477</v>
       </c>
       <c r="J49" s="19"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
+        <f>IF(OR($A49&lt;($C$6*$C$7),$A$17:$A49),$A49+1,"")</f>
         <v>34</v>
       </c>
       <c r="B50" s="19">
-        <v>45107</v>
-      </c>
-      <c r="C50" s="40">
         <f t="shared" si="0"/>
+        <v>45122</v>
+      </c>
+      <c r="C50" s="26">
+        <f t="shared" si="1"/>
         <v>31868.28268717241</v>
       </c>
-      <c r="D50" s="40">
-        <f t="shared" si="1"/>
+      <c r="D50" s="26">
+        <f t="shared" si="2"/>
         <v>15736.883875562618</v>
       </c>
-      <c r="E50" s="40">
-        <f t="shared" si="2"/>
+      <c r="E50" s="26">
+        <f t="shared" si="3"/>
         <v>396.70972135612453</v>
       </c>
-      <c r="F50" s="40">
-        <f t="shared" si="3"/>
+      <c r="F50" s="26">
+        <f t="shared" si="4"/>
         <v>468131.71731282759</v>
       </c>
-      <c r="G50" s="40">
-        <f t="shared" si="4"/>
+      <c r="G50" s="26">
+        <f t="shared" si="5"/>
         <v>80410.464982409598</v>
       </c>
       <c r="J50" s="19"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
+        <f>IF(OR($A50&lt;($C$6*$C$7),$A$17:$A50),$A50+1,"")</f>
         <v>35</v>
       </c>
       <c r="B51" s="19">
-        <v>45138</v>
-      </c>
-      <c r="C51" s="40">
         <f t="shared" si="0"/>
+        <v>45153</v>
+      </c>
+      <c r="C51" s="26">
+        <f t="shared" si="1"/>
         <v>16000.25811264677</v>
       </c>
-      <c r="D51" s="40">
+      <c r="D51" s="26">
+        <f t="shared" si="2"/>
+        <v>15868.02457452564</v>
+      </c>
+      <c r="E51" s="26">
+        <f t="shared" si="3"/>
+        <v>265.56902239310273</v>
+      </c>
+      <c r="F51" s="26">
+        <f t="shared" si="4"/>
+        <v>483999.74188735324</v>
+      </c>
+      <c r="G51" s="26">
+        <f t="shared" si="5"/>
+        <v>80676.034004802699</v>
+      </c>
+      <c r="J51" s="19"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="19">
+        <f t="shared" si="0"/>
+        <v>45184</v>
+      </c>
+      <c r="C52" s="26" t="e">
         <f t="shared" si="1"/>
-        <v>15868.02457452564</v>
-      </c>
-      <c r="E51" s="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="26" t="e">
         <f t="shared" si="2"/>
-        <v>265.56902239310273</v>
-      </c>
-      <c r="F51" s="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E52" s="26" t="e">
         <f t="shared" si="3"/>
-        <v>483999.74188735324</v>
-      </c>
-      <c r="G51" s="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F52" s="26" t="e">
         <f t="shared" si="4"/>
-        <v>80676.034004802699</v>
-      </c>
-      <c r="J51" s="19"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>36</v>
-      </c>
-      <c r="B52" s="19">
-        <v>45169</v>
-      </c>
-      <c r="C52" s="40">
-        <f t="shared" si="0"/>
-        <v>8.1854523159563541E-11</v>
-      </c>
-      <c r="D52" s="40">
-        <f t="shared" si="1"/>
-        <v>16000.258112646688</v>
-      </c>
-      <c r="E52" s="40">
-        <f t="shared" si="2"/>
-        <v>133.33548427205574</v>
-      </c>
-      <c r="F52" s="40">
-        <f t="shared" si="3"/>
-        <v>499999.99999999994</v>
-      </c>
-      <c r="G52" s="40">
-        <f t="shared" si="4"/>
-        <v>80809.369489074757</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G52" s="26" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
       </c>
       <c r="J52" s="19"/>
     </row>
